--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -502,8 +502,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+      <c r="D2" s="2" t="n">
+        <v>0.14</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>3</v>
@@ -529,8 +529,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+      <c r="D3" s="2" t="n">
+        <v>0.03</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>2</v>
@@ -556,8 +556,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+      <c r="D4" s="2" t="n">
+        <v>0.05</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -583,7 +583,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -610,7 +610,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.08</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -637,8 +637,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.11</v>
+      <c r="D7" s="2" t="n">
+        <v>0.1</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -691,8 +691,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.09</v>
+      <c r="D9" s="2" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -718,7 +718,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.11</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -745,7 +745,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -772,8 +772,8 @@
           <t>Foil</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1.21</v>
+      <c r="D12" s="2" t="n">
+        <v>1.22</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
@@ -799,8 +799,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0.2</v>
+      <c r="D13" s="2" t="n">
+        <v>0.22</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
@@ -826,7 +826,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -858,7 +858,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="E15" s="2" t="n">
@@ -890,8 +890,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.05</v>
+      <c r="D16" s="2" t="n">
+        <v>0.08</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
@@ -917,8 +917,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.07000000000000001</v>
+      <c r="D17" s="2" t="n">
+        <v>0.05</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="E18" s="2" t="n">
@@ -971,7 +971,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="E19" s="2" t="n">
@@ -998,8 +998,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.2</v>
+      <c r="D20" s="2" t="n">
+        <v>0.21</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1025,7 +1025,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="E21" s="2" t="n">
@@ -1052,7 +1052,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.09</v>
       </c>
       <c r="E22" s="2" t="n">
@@ -1079,7 +1079,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="E23" s="2" t="n">
@@ -1106,8 +1106,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0.15</v>
+      <c r="D24" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -1133,7 +1133,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="E25" s="2" t="n">
@@ -1164,7 +1164,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="E26" s="2" t="n">
@@ -1191,7 +1191,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>0.08</v>
       </c>
       <c r="E27" s="2" t="n">
@@ -1218,7 +1218,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="E28" s="2" t="n">
@@ -1245,7 +1245,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>0.06</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1272,8 +1272,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0.07000000000000001</v>
+      <c r="D30" s="2" t="n">
+        <v>0.05</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>2</v>
@@ -1299,7 +1299,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1326,8 +1326,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0.03</v>
+      <c r="D32" s="2" t="n">
+        <v>0.04</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>3</v>
@@ -1353,7 +1353,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="E33" s="2" t="n">
@@ -1380,8 +1380,8 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0.07000000000000001</v>
+      <c r="D34" s="2" t="n">
+        <v>0.06</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>3</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>2</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>4</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>2</v>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>2</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>2</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>2</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>3</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>2</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>1</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>4</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>2</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>2</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>2</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>2</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>2</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>2</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3</v>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>4</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>2</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>4</v>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>4</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>2</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>2</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>2</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -420,17 +420,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col width="23.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="41.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11.5703125" customWidth="1" style="1" min="3" max="16384"/>
+    <col width="11.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.5703125" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -504,7 +505,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -531,7 +532,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
@@ -558,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -612,7 +613,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -652,21 +653,21 @@
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Glaring Aegis</t>
+          <t>Drifting Meadow</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Core 2020</t>
+          <t>Dominaria Remastered</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Foil</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -679,12 +680,12 @@
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gods Willing</t>
+          <t>Glaring Aegis</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Theros</t>
+          <t>Core 2020</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -706,12 +707,12 @@
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Kytheon's Tactics</t>
+          <t>Gods Willing</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Magic Origins</t>
+          <t>Theros</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -720,7 +721,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -733,21 +734,21 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lagonna-Band Trailblazer</t>
+          <t>Kytheon's Tactics</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Journey into Nyx</t>
+          <t>Magic Origins</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Foil</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.25</v>
+        <v>0.04</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -770,11 +771,11 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Foil</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1</v>
@@ -787,12 +788,12 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Legion Conquistador</t>
+          <t>Lagonna-Band Trailblazer</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Rivals of Ixalan</t>
+          <t>Journey into Nyx</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -801,30 +802,25 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <f>D14*E14</f>
         <v/>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tin mi ih je dao </t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Loyal Pegasus</t>
+          <t>Legion Conquistador</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Born of the Gods</t>
+          <t>Rivals of Ixalan</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -833,7 +829,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>4</v>
@@ -844,14 +840,14 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>&lt;3 &lt;3 &lt;3 &lt;3</t>
+          <t xml:space="preserve">Tin mi ih je dao </t>
         </is>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Mortal's Ardor</t>
+          <t>Loyal Pegasus</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -865,25 +861,30 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <f>D16*E16</f>
         <v/>
       </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>&lt;3 &lt;3 &lt;3 &lt;3</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Oppressive Rays</t>
+          <t>Mortal's Ardor</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Journey into Nyx</t>
+          <t>Born of the Gods</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -892,10 +893,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <f>D17*E17</f>
@@ -905,12 +906,12 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Raffine's Informant</t>
+          <t>Oppressive Rays</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Streets of New Capenna</t>
+          <t>Journey into Nyx</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -919,10 +920,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <f>D18*E18</f>
@@ -932,7 +933,7 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Revelation of Power</t>
+          <t>Raffine's Informant</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -946,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -959,12 +960,12 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Seeker of the Way</t>
+          <t>Revelation of Power</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Khans of Tarkir</t>
+          <t>Streets of New Capenna</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -973,10 +974,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <f>D20*E20</f>
@@ -986,12 +987,12 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Smite</t>
+          <t>Seeker of the Way</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Gatecrash</t>
+          <t>Khans of Tarkir</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -1000,10 +1001,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
         <f>D21*E21</f>
@@ -1013,12 +1014,12 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Steadfast Unicorn</t>
+          <t>Smite</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Commander Legends: Battle for Baldur's Gate</t>
+          <t>Gatecrash</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1027,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -1040,12 +1041,12 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Swift Justice</t>
+          <t>Steadfast Unicorn</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Return to Ravnica</t>
+          <t>Commander Legends: Battle for Baldur's Gate</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1054,7 +1055,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1</v>
@@ -1067,12 +1068,12 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Thraben Inspector</t>
+          <t>Swift Justice</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Shadows over Innistrad</t>
+          <t>Return to Ravnica</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1081,10 +1082,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <f>D24*E24</f>
@@ -1094,12 +1095,12 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valor of the Worthy</t>
+          <t>Thraben Inspector</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Kaldheim</t>
+          <t>Shadows over Innistrad</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -1108,7 +1109,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>2</v>
@@ -1117,20 +1118,16 @@
         <f>D25*E25</f>
         <v/>
       </c>
-      <c r="G25" s="2">
-        <f>SUM(F2:F25)</f>
-        <v/>
-      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lyev Decree</t>
+          <t>Valor of the Worthy</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Dragon's Maze</t>
+          <t>Kaldheim</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1139,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2</v>
@@ -1148,16 +1145,20 @@
         <f>D26*E26</f>
         <v/>
       </c>
+      <c r="G26" s="2">
+        <f>SUM(F2:F26)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Court Street Denizen</t>
+          <t>Lyev Decree</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Gatecrash</t>
+          <t>Dragon's Maze</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1166,7 +1167,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>2</v>
@@ -1179,12 +1180,12 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Doomed Traveler</t>
+          <t>Court Street Denizen</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Innistrad</t>
+          <t>Gatecrash</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -1193,10 +1194,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
         <f>D28*E28</f>
@@ -1206,12 +1207,12 @@
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Smite</t>
+          <t>Doomed Traveler</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Gatecrash</t>
+          <t>Innistrad</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -1220,10 +1221,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <f>D29*E29</f>
@@ -1233,12 +1234,12 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Oppressive Rays</t>
+          <t>Smite</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Journey into Nyx</t>
+          <t>Gatecrash</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -1247,10 +1248,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
         <f>D30*E30</f>
@@ -1260,12 +1261,12 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Setessan Battle Priest</t>
+          <t>Oppressive Rays</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Theros</t>
+          <t>Journey into Nyx</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -1274,7 +1275,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
@@ -1287,12 +1288,12 @@
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pacifism</t>
+          <t>Setessan Battle Priest</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Magic 2013</t>
+          <t>Theros</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -1301,10 +1302,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <f>D32*E32</f>
@@ -1314,12 +1315,12 @@
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Mighty Leap</t>
+          <t>Pacifism</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Magic 2011</t>
+          <t>Magic 2013</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -1328,10 +1329,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2">
         <f>D33*E33</f>
@@ -1341,12 +1342,12 @@
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Break of Day</t>
+          <t>Mighty Leap</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Dark Ascension</t>
+          <t>Magic 2011</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -1355,7 +1356,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>1</v>
@@ -1364,26 +1365,25 @@
         <f>D34*E34</f>
         <v/>
       </c>
-      <c r="G34" s="2" t="n"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sun Clasp</t>
+          <t>Break of Day</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Dominaria Remastered</t>
+          <t>Dark Ascension</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Foil</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>1</v>
@@ -1392,14 +1392,42 @@
         <f>D35*E35</f>
         <v/>
       </c>
-      <c r="G35" s="2">
-        <f>SUM(F26:F35)</f>
-        <v/>
-      </c>
+      <c r="G35" s="2" t="n"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Sun Clasp</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Dominaria Remastered</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Foil</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" s="2">
-        <f>SUM(F2:F35)</f>
+        <f>D36*E36</f>
+        <v/>
+      </c>
+      <c r="G36" s="2">
+        <f>SUM(F27:F36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="F37" s="2">
+        <f>SUM(F2:F36)</f>
         <v/>
       </c>
     </row>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>4</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>4</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>4</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>4</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>4</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>1</v>

--- a/monoWhiteVeryBad.xlsx
+++ b/monoWhiteVeryBad.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>4</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>1</v>
